--- a/Glosario DataEducacion 1.xlsx
+++ b/Glosario DataEducacion 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-EDUCACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228E078F-2BAB-449A-A880-A58657A90D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4E8BBE-BF25-4C2D-B6FC-61AF312370E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{17C7F4D8-EEB3-4ED7-B6A1-07BA937DF46F}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Glosario DataEducacion 1.xlsx
+++ b/Glosario DataEducacion 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-EDUCACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4E8BBE-BF25-4C2D-B6FC-61AF312370E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7623DD-1A34-4451-8FA1-02EEF1984A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{17C7F4D8-EEB3-4ED7-B6A1-07BA937DF46F}"/>
   </bookViews>
@@ -42,30 +42,18 @@
     <t>Corporación Municipal</t>
   </si>
   <si>
-    <t>administración delegada a través de Corporaciones Municipales. Éstas son unidades responsables de la administración global de recursos humanos, físicos y financieros asociados a los estudiantes que asisten a los establecimientos municipales de la comuna y también están encargadas de asesorar a los Alcaldes y Concejos Municipales en lo relativo a la formulación de políticas en el ámbito educativo.</t>
-  </si>
-  <si>
     <t>Municipal DAEM</t>
   </si>
   <si>
     <t>Particular Subvencionado</t>
   </si>
   <si>
-    <t>establecimientos que pertenecen a sostenedores privados y que reciben una subvención del Estado por cada alumno atendido.</t>
-  </si>
-  <si>
     <t>Particular Pagado</t>
   </si>
   <si>
-    <t>establecimientos que pertenecen a particulares, que no reciben subvención del Estado y que son pagados por los padres y apoderados.</t>
-  </si>
-  <si>
     <t>Corporación de Administración Delegada (DL 3166)</t>
   </si>
   <si>
-    <t>un sostenedor privado es el que administra o gestiona el establecimiento educacional, que es de propiedad del estado, y que recibe recursos del estado para su funcionamiento. Esta modalidad está restringida tanto a sostenedores de derecho privado sin fines de lucro, como aquellos que imparten educación técnico profesional.</t>
-  </si>
-  <si>
     <t>Servicio Local de Educación</t>
   </si>
   <si>
@@ -93,24 +81,6 @@
     <t>Desempeño insuficiente</t>
   </si>
   <si>
-    <t>agrupa a establecimientos cuyos estudiantes obtienen resultados que sobresalen respecto de lo esperado, considerando siempre el contexto social de los estudiantes del establecimiento.</t>
-  </si>
-  <si>
-    <t>establecimientos educacionales cuya administración ha sido traspasada a las municipalidades del país.</t>
-  </si>
-  <si>
-    <t>agrupa a establecimientos cuyos estudiantes obtienen resultados similares a lo esperado, considerando siempre el contexto social de los estudiantes del establecimiento.</t>
-  </si>
-  <si>
-    <t>agrupa establecimientos cuyos estudiantes obtienen resultados por debajo de lo esperado, considerando siempre el contexto social de los estudiantes del establecimiento.</t>
-  </si>
-  <si>
-    <t>agrupa a establecimientos cuyos estudiantes obtienen resultados muy por debajo de lo esperado, considerando siempre el contexto social de los estudiantes del establecimiento.</t>
-  </si>
-  <si>
-    <t>es uno de los componentes del Sistema de Aseguramiento de la Calidad de la Educación, cuyos objetivos son evaluar el aprendizaje de los estudiantes y el logro de los otros indicadores de calidad educativa, informar a la comunidad escolar sobre la evaluación de los establecimientos e identificar las necesidades de apoyo, en especial a los establecimientos ordenados en categoría de desempeño Medio- Bajo e Insuficiente. Su construcción se basa en un Índice de Resultados inicial que considera: la distribución de los estudiantes en los Niveles de Aprendizaje (67%), los Indicadores de Desarrollo Personal y Social, los resultados de las pruebas Simce y su progreso en las últimas tres o dos mediciones según corresponda para cada nivel (33%). Luego, este Índice de Resultados se ajusta según las Características de los Estudiantes del establecimiento educacional, por ejemplo, su vulnerabilidad. Finalmente, en base a este nuevo Índice de Resultados final, se clasifica a los establecimientos en Alto, Medio, Medio bajo e Insuficiente.</t>
-  </si>
-  <si>
     <t>Categoría de Desempeño</t>
   </si>
   <si>
@@ -120,9 +90,6 @@
     <t>Nivel de Aprendizaje</t>
   </si>
   <si>
-    <t>los Estándares de Aprendizaje describen lo que los estudiantes deben saber y poder hacer para demostrar si alcanzan los objetivos de aprendizaje estipulados en el currículo vigente.</t>
-  </si>
-  <si>
     <t>Nivel de Aprendizaje Insuficiente</t>
   </si>
   <si>
@@ -132,15 +99,6 @@
     <t>Nivel de Aprendizaje Adecuado</t>
   </si>
   <si>
-    <t>los estudiantes que quedan clasificados en este nivel no logran demostrar consistentemente que han adquirido los conocimientos y habilidades más elementales estipulados en el currículo para el período evaluado.</t>
-  </si>
-  <si>
-    <t>los estudiantes que alcanzan este Nivel de Aprendizaje han logrado lo exigido en el currículo de manera parcial. Esto implica demostrar que han adquirido los conocimientos y habilidades más elementales estipulados para el período evaluado.</t>
-  </si>
-  <si>
-    <t>los estudiantes que alcanzan este Nivel de Aprendizaje han logrado lo exigido en el currículo de manera satisfactoria. Esto implica demostrar que han adquirido los conocimientos y habilidades básicos estipulados para el período evaluado.</t>
-  </si>
-  <si>
     <t>Indicadores Personales de Desarrollo</t>
   </si>
   <si>
@@ -156,18 +114,6 @@
     <t>Hábitos de Vida Saludable</t>
   </si>
   <si>
-    <t>un estudiante que se siente capaz académicamente y que está motivado por el estudio, es más probable que se interese e invierta esfuerzo en las actividades escolares.                       Este indicador considera la percepción y valoración de los estudiantes en relación con su capacidad de aprender y por otra parte las percepciones y actitudes que tienen los estudiantes hacia el aprendizaje y el logro académico.</t>
-  </si>
-  <si>
-    <t>el clima de convivencia escolar afecta el bienestar y desarrollo socioafectivo de los estudiantes e impacta en su conducta, disposición y rendimiento durante las actividades escolares. Considera las percepciones y las actitudes que tienen los estudiantes, docentes y padres y apoderados con respecto a la presencia de un ambiente de respeto, organizado y seguro.</t>
-  </si>
-  <si>
-    <t>un clima participativo y con un mayor sentido de pertenencia a la escuela mejora el compromiso y las disposición de los estudiantes, docentes, padres y apoderados hacia la mejora de los aprendizajes. Este indicador considera las percepciones y las actitudes que declaran los docentes, estudiantes, padres y apoderados en los cuestionarios que se aplican durante las pruebas Simce.</t>
-  </si>
-  <si>
-    <t>la práctica de actividad física y una alimentación balanceada mejora la capacidad de aprendizaje de los estudiantes, ya que incrementa la capacidad para resolver tareas difíciles, la concentración y la memoria. También, disminuye la eventual ansiedad y estrés ante las evaluaciones. Este indicador considera las actitudes y conductas declaradas de los estudiantes en relación con la vida saludable, también sus percepciones sobre el grado en que el establecimiento promueve hábitos de alimentación sana, de vida activa y de autocuidado.</t>
-  </si>
-  <si>
     <t>GSE</t>
   </si>
   <si>
@@ -175,6 +121,60 @@
   </si>
   <si>
     <t>Otros Conceptos</t>
+  </si>
+  <si>
+    <t>Administración delegada a través de Corporaciones Municipales. Éstas son unidades responsables de la administración global de recursos humanos, físicos y financieros asociados a los estudiantes que asisten a los establecimientos municipales de la comuna y también están encargadas de asesorar a los Alcaldes y Concejos Municipales en lo relativo a la formulación de políticas en el ámbito educativo.</t>
+  </si>
+  <si>
+    <t>Establecimientos educacionales cuya administración ha sido traspasada a las municipalidades del país.</t>
+  </si>
+  <si>
+    <t>Establecimientos que pertenecen a sostenedores privados y que reciben una subvención del Estado por cada alumno atendido.</t>
+  </si>
+  <si>
+    <t>Establecimientos que pertenecen a particulares, que no reciben subvención del Estado y que son pagados por los padres y apoderados.</t>
+  </si>
+  <si>
+    <t>Un sostenedor privado es el que administra o gestiona el establecimiento educacional, que es de propiedad del estado, y que recibe recursos del estado para su funcionamiento. Esta modalidad está restringida tanto a sostenedores de derecho privado sin fines de lucro, como aquellos que imparten educación técnico profesional.</t>
+  </si>
+  <si>
+    <t>Es uno de los componentes del Sistema de Aseguramiento de la Calidad de la Educación, cuyos objetivos son evaluar el aprendizaje de los estudiantes y el logro de los otros indicadores de calidad educativa, informar a la comunidad escolar sobre la evaluación de los establecimientos e identificar las necesidades de apoyo, en especial a los establecimientos ordenados en categoría de desempeño Medio- Bajo e Insuficiente. Su construcción se basa en un Índice de Resultados inicial que considera: la distribución de los estudiantes en los Niveles de Aprendizaje (67%), los Indicadores de Desarrollo Personal y Social, los resultados de las pruebas Simce y su progreso en las últimas tres o dos mediciones según corresponda para cada nivel (33%). Luego, este Índice de Resultados se ajusta según las Características de los Estudiantes del establecimiento educacional, por ejemplo, su vulnerabilidad. Finalmente, en base a este nuevo Índice de Resultados final, se clasifica a los establecimientos en Alto, Medio, Medio bajo e Insuficiente.</t>
+  </si>
+  <si>
+    <t>Agrupa a establecimientos cuyos estudiantes obtienen resultados que sobresalen respecto de lo esperado, considerando siempre el contexto social de los estudiantes del establecimiento.</t>
+  </si>
+  <si>
+    <t>Agrupa a establecimientos cuyos estudiantes obtienen resultados similares a lo esperado, considerando siempre el contexto social de los estudiantes del establecimiento.</t>
+  </si>
+  <si>
+    <t>Agrupa establecimientos cuyos estudiantes obtienen resultados por debajo de lo esperado, considerando siempre el contexto social de los estudiantes del establecimiento.</t>
+  </si>
+  <si>
+    <t>Agrupa a establecimientos cuyos estudiantes obtienen resultados muy por debajo de lo esperado, considerando siempre el contexto social de los estudiantes del establecimiento.</t>
+  </si>
+  <si>
+    <t>Los Estándares de Aprendizaje describen lo que los estudiantes deben saber y poder hacer para demostrar si alcanzan los objetivos de aprendizaje estipulados en el currículo vigente.</t>
+  </si>
+  <si>
+    <t>Los estudiantes que quedan clasificados en este nivel no logran demostrar consistentemente que han adquirido los conocimientos y habilidades más elementales estipulados en el currículo para el período evaluado.</t>
+  </si>
+  <si>
+    <t>Los estudiantes que alcanzan este Nivel de Aprendizaje han logrado lo exigido en el currículo de manera parcial. Esto implica demostrar que han adquirido los conocimientos y habilidades más elementales estipulados para el período evaluado.</t>
+  </si>
+  <si>
+    <t>Los estudiantes que alcanzan este Nivel de Aprendizaje han logrado lo exigido en el currículo de manera satisfactoria. Esto implica demostrar que han adquirido los conocimientos y habilidades básicos estipulados para el período evaluado.</t>
+  </si>
+  <si>
+    <t>Un estudiante que se siente capaz académicamente y que está motivado por el estudio, es más probable que se interese e invierta esfuerzo en las actividades escolares.                       Este indicador considera la percepción y valoración de los estudiantes en relación con su capacidad de aprender y por otra parte las percepciones y actitudes que tienen los estudiantes hacia el aprendizaje y el logro académico.</t>
+  </si>
+  <si>
+    <t>El clima de convivencia escolar afecta el bienestar y desarrollo socioafectivo de los estudiantes e impacta en su conducta, disposición y rendimiento durante las actividades escolares. Considera las percepciones y las actitudes que tienen los estudiantes, docentes y padres y apoderados con respecto a la presencia de un ambiente de respeto, organizado y seguro.</t>
+  </si>
+  <si>
+    <t>Un clima participativo y con un mayor sentido de pertenencia a la escuela mejora el compromiso y las disposición de los estudiantes, docentes, padres y apoderados hacia la mejora de los aprendizajes. Este indicador considera las percepciones y las actitudes que declaran los docentes, estudiantes, padres y apoderados en los cuestionarios que se aplican durante las pruebas Simce.</t>
+  </si>
+  <si>
+    <t>La práctica de actividad física y una alimentación balanceada mejora la capacidad de aprendizaje de los estudiantes, ya que incrementa la capacidad para resolver tareas difíciles, la concentración y la memoria. También, disminuye la eventual ansiedad y estrés ante las evaluaciones. Este indicador considera las actitudes y conductas declaradas de los estudiantes en relación con la vida saludable, también sus percepciones sobre el grado en que el establecimiento promueve hábitos de alimentación sana, de vida activa y de autocuidado.</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,10 +630,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -641,10 +641,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -652,10 +652,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -663,10 +663,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -674,10 +674,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -685,164 +685,164 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Glosario DataEducacion 1.xlsx
+++ b/Glosario DataEducacion 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-EDUCACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7623DD-1A34-4451-8FA1-02EEF1984A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A547C706-0045-479E-A484-73ECA79D957D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{17C7F4D8-EEB3-4ED7-B6A1-07BA937DF46F}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Servicio Local de Educación</t>
   </si>
   <si>
-    <t>Sistema de Educación Pública, en donde se transferirán los establecimientos educacionales de los 345 municipios del país a 70 nuevos servicios. Los SLE constituirán servicios públicos descentralizados cuyo objeto único será la provisión del servicio educacional en sus respectivos territorios de competencia. La coordinación de todos los SLE está a cargo de la Dirección de Educación Pública del Ministerio de Educación.</t>
-  </si>
-  <si>
     <t>JUNJI</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>Establecimientos que pertenecen a particulares, que no reciben subvención del Estado y que son pagados por los padres y apoderados.</t>
   </si>
   <si>
-    <t>Un sostenedor privado es el que administra o gestiona el establecimiento educacional, que es de propiedad del estado, y que recibe recursos del estado para su funcionamiento. Esta modalidad está restringida tanto a sostenedores de derecho privado sin fines de lucro, como aquellos que imparten educación técnico profesional.</t>
-  </si>
-  <si>
     <t>Es uno de los componentes del Sistema de Aseguramiento de la Calidad de la Educación, cuyos objetivos son evaluar el aprendizaje de los estudiantes y el logro de los otros indicadores de calidad educativa, informar a la comunidad escolar sobre la evaluación de los establecimientos e identificar las necesidades de apoyo, en especial a los establecimientos ordenados en categoría de desempeño Medio- Bajo e Insuficiente. Su construcción se basa en un Índice de Resultados inicial que considera: la distribución de los estudiantes en los Niveles de Aprendizaje (67%), los Indicadores de Desarrollo Personal y Social, los resultados de las pruebas Simce y su progreso en las últimas tres o dos mediciones según corresponda para cada nivel (33%). Luego, este Índice de Resultados se ajusta según las Características de los Estudiantes del establecimiento educacional, por ejemplo, su vulnerabilidad. Finalmente, en base a este nuevo Índice de Resultados final, se clasifica a los establecimientos en Alto, Medio, Medio bajo e Insuficiente.</t>
   </si>
   <si>
@@ -175,6 +169,12 @@
   </si>
   <si>
     <t>La práctica de actividad física y una alimentación balanceada mejora la capacidad de aprendizaje de los estudiantes, ya que incrementa la capacidad para resolver tareas difíciles, la concentración y la memoria. También, disminuye la eventual ansiedad y estrés ante las evaluaciones. Este indicador considera las actitudes y conductas declaradas de los estudiantes en relación con la vida saludable, también sus percepciones sobre el grado en que el establecimiento promueve hábitos de alimentación sana, de vida activa y de autocuidado.</t>
+  </si>
+  <si>
+    <t>El Ministerio de Educación Pública podrá entregar la administración de determinados establecimientos de Educación Técnico Profesional de carácter fiscal a instituciones del sector público, o a personas jurídicas que no persigan fines de lucro, cuyo objeto principal diga relación directa con las finalidades perseguidas con la creación del respectivo establecimiento educacional.</t>
+  </si>
+  <si>
+    <t>Refiere a los sostenedores educacionales que velarán por entregar una formación integral, de calidad y con pertinencia local, centrado en los aprendizajes para el siglo XXI. Una de sus principales misiones es entregar oportunidades a todos los niños, niñas y jóvenes en el país para poder desarrollarse. En noviembre del 2017, la Ley 21.040 estableció una nueva institucionalidad para la Educación Pública en Chile, donde se traspasan los establecimientos educacionales, jardines infantiles VTF, escuelas y liceos de los 345 municipios a 70 Servicios Locales de Educación Pública. Se espera que los servicios educacionales de todas las comunas restantes estén implementados hacia el 2025.</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -633,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -677,7 +677,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -685,164 +685,164 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
         <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Glosario DataEducacion 1.xlsx
+++ b/Glosario DataEducacion 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-EDUCACION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-EDUCACION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A547C706-0045-479E-A484-73ECA79D957D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99F8B4F-B38A-403A-9CFC-D814976671C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{17C7F4D8-EEB3-4ED7-B6A1-07BA937DF46F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{17C7F4D8-EEB3-4ED7-B6A1-07BA937DF46F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>Es uno de los componentes del Sistema de Aseguramiento de la Calidad de la Educación, cuyos objetivos son evaluar el aprendizaje de los estudiantes y el logro de los otros indicadores de calidad educativa, informar a la comunidad escolar sobre la evaluación de los establecimientos e identificar las necesidades de apoyo, en especial a los establecimientos ordenados en categoría de desempeño Medio- Bajo e Insuficiente. Su construcción se basa en un Índice de Resultados inicial que considera: la distribución de los estudiantes en los Niveles de Aprendizaje (67%), los Indicadores de Desarrollo Personal y Social, los resultados de las pruebas Simce y su progreso en las últimas tres o dos mediciones según corresponda para cada nivel (33%). Luego, este Índice de Resultados se ajusta según las Características de los Estudiantes del establecimiento educacional, por ejemplo, su vulnerabilidad. Finalmente, en base a este nuevo Índice de Resultados final, se clasifica a los establecimientos en Alto, Medio, Medio bajo e Insuficiente.</t>
   </si>
   <si>
-    <t>Agrupa a establecimientos cuyos estudiantes obtienen resultados que sobresalen respecto de lo esperado, considerando siempre el contexto social de los estudiantes del establecimiento.</t>
-  </si>
-  <si>
     <t>Agrupa a establecimientos cuyos estudiantes obtienen resultados similares a lo esperado, considerando siempre el contexto social de los estudiantes del establecimiento.</t>
   </si>
   <si>
@@ -175,15 +172,46 @@
   </si>
   <si>
     <t>Refiere a los sostenedores educacionales que velarán por entregar una formación integral, de calidad y con pertinencia local, centrado en los aprendizajes para el siglo XXI. Una de sus principales misiones es entregar oportunidades a todos los niños, niñas y jóvenes en el país para poder desarrollarse. En noviembre del 2017, la Ley 21.040 estableció una nueva institucionalidad para la Educación Pública en Chile, donde se traspasan los establecimientos educacionales, jardines infantiles VTF, escuelas y liceos de los 345 municipios a 70 Servicios Locales de Educación Pública. Se espera que los servicios educacionales de todas las comunas restantes estén implementados hacia el 2025.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Agrupa a establecimientos cuyos estudiantes obtienen resultados que sobresalen respecto de lo esperado, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>considerando siempre el contexto social de los estudiantes del establecimiento.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -239,35 +267,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -286,9 +363,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{372CFA12-8624-4C3F-B69F-ACCAA3378C5A}" name="Glosario_Educacion" displayName="Glosario_Educacion" ref="A1:C22" totalsRowShown="0">
   <autoFilter ref="A1:C22" xr:uid="{A3C73455-85A2-4A2E-B0D4-4F2BD9D2363E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{18D569A9-DB22-499A-9E69-A478164E8361}" name="Categoría"/>
+    <tableColumn id="1" xr3:uid="{18D569A9-DB22-499A-9E69-A478164E8361}" name="Categoría" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{395F9E3B-69CE-4C5D-AD15-C8A664FFC2EE}" name="Concepto" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{7C95199E-C06D-4179-AE90-5422094E823A}" name="Definición"/>
+    <tableColumn id="3" xr3:uid="{7C95199E-C06D-4179-AE90-5422094E823A}" name="Definición" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -593,255 +670,255 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1123B664-121F-4AE8-B474-20AFC43C24F3}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="2" width="28.453125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="80.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="48.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" ht="48.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" ht="24.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="18" spans="1:3" ht="48.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" ht="48.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3" ht="48.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3" ht="60.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>29</v>
       </c>
     </row>
